--- a/Assets/Documents/科技设计/科技设计表.xlsx
+++ b/Assets/Documents/科技设计/科技设计表.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24712"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\Assets\Documents\科技设计\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\ToyEmpires\ToyEmpires\ToyEmpires\Assets\Documents\科技设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3598CB1A-52D4-4DA0-A44B-B59BC8C8392F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48742EE-F179-4A75-8553-B3655DB3505D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{47EAAEC5-C6B0-4942-A518-E501AA69D730}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{47EAAEC5-C6B0-4942-A518-E501AA69D730}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="科技表" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>TID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,6 +67,65 @@
   </si>
   <si>
     <t>最低消耗黄金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手推车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>历法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+  </si>
+  <si>
+    <t>0003</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>冶金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锻造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005</t>
+  </si>
+  <si>
+    <t>0006</t>
+  </si>
+  <si>
+    <t>0007</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>0009</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>火药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -113,8 +172,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -431,21 +493,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7844110-3EB6-4142-93DB-59FF7C22A1EE}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="14.53125" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="15.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="22.53125" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
+    <col min="9" max="9" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -471,6 +537,79 @@
       </c>
       <c r="I1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
